--- a/medicine/Enfance/Tribal_(Flammarion)/Tribal_(Flammarion).xlsx
+++ b/medicine/Enfance/Tribal_(Flammarion)/Tribal_(Flammarion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tribal est le nom d'une collection de littérature pour les adolescent(e)s, aux éditions Flammarion.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection est créée en 1999[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection est créée en 1999. 
 Y sont publiés des auteurs confirmés pour la jeunesse, ainsi que des rééditions de romans classiques ou contemporains.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Pierre Andrevon, Les Guerriers de la nuit
 Hubert Ben Kemoun, La Gazelle
